--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_GiayDeNghi_ThanhToan_ChiTrongNuoc.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_GiayDeNghi_ThanhToan_ChiTrongNuoc.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\trangnt3\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Viettel\QLNS\11-10-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__dt__">Sheet1!$B$19:$E$19</definedName>
+    <definedName name="__dt__">Sheet1!$C$19:$F$19</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$22:$K$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$29</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$B$23:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$L$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$16:$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
-  <si>
-    <t>CỤC TÀI CHÍNH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -140,21 +137,9 @@
     <t>Đơn vị thụ hưởng: &lt;#sDonViThuHuong&gt;.</t>
   </si>
   <si>
-    <t>Chuyển khoản : &lt;#fBangSo&gt;. Bằng chữ: &lt;#sBangChu&gt;.</t>
-  </si>
-  <si>
     <t>Số tài khoản: &lt;#sSoTaiKhoan&gt; .Tại: &lt;#sNganHang&gt;.</t>
   </si>
   <si>
-    <t>NGƯỜI LẬP</t>
-  </si>
-  <si>
-    <t>TUQ. CỤC TRƯỞNG</t>
-  </si>
-  <si>
-    <t>TRƯỞNG PHÒNG</t>
-  </si>
-  <si>
     <t>(*) Ghi các căn cứ Hợp đồng, văn bản phê duyệt dự toán  đối với các nội dung chi không qua hợp đồng.</t>
   </si>
   <si>
@@ -222,6 +207,30 @@
   </si>
   <si>
     <t>Chương 010, Loại 010, Khoản 011.</t>
+  </si>
+  <si>
+    <t>Chuyển khoản : &lt;#fBangSo&gt;. Bằng chữ: &lt;#sBangChu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#idDonVi&gt;))&gt;</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -532,9 +541,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -543,6 +549,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -916,496 +931,609 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:J14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="15.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="1.140625" style="1"/>
+    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="12" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="1.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="52"/>
-    </row>
-    <row r="2" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="47" t="s">
+    <row r="1" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="54"/>
+    </row>
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+    </row>
+    <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-    </row>
-    <row r="3" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="4" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B6" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+    </row>
+    <row r="7" spans="2:12" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B8" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B10" s="19"/>
+      <c r="C10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B11" s="19"/>
+      <c r="C11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B12" s="19"/>
+      <c r="C12" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B13" s="19"/>
+      <c r="C13" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B14" s="19"/>
+      <c r="C14" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B15" s="19"/>
+      <c r="C15" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="47"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="2:12" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+      <c r="B19" s="18"/>
+      <c r="C19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-    </row>
-    <row r="6" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="J19" s="40"/>
+      <c r="K19" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-    </row>
-    <row r="7" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-    </row>
-    <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="31" t="s">
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" spans="2:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="18"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+    </row>
+    <row r="24" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="46"/>
-    </row>
-    <row r="17" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="2:11" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="2:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="43"/>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D25" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="D27" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I27" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+    </row>
+    <row r="28" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
-      <c r="C28" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="18"/>
+      <c r="D28" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+    </row>
+    <row r="35" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="26"/>
+    </row>
+    <row r="36" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="18"/>
+      <c r="D36" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
+  <mergeCells count="46">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D23:L23"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"&amp;12Tờ: &lt;#To&gt;- Trang: &amp;P/&amp;N</oddHeader>
   </headerFooter>
@@ -1420,14 +1548,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1443,7 +1571,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1459,9 +1587,9 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1477,7 +1605,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1493,7 +1621,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1509,12 +1637,12 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1529,7 +1657,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1545,9 +1673,9 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1556,73 +1684,73 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="4"/>
       <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="M11" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="N11" s="14"/>
     </row>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_GiayDeNghi_ThanhToan_ChiTrongNuoc.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_GiayDeNghi_ThanhToan_ChiTrongNuoc.xlsx
@@ -16,11 +16,11 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__dt__">Sheet1!$C$19:$F$19</definedName>
+    <definedName name="__dt__">Sheet1!$C$21:$F$21</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$23:$L$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$L$37</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$16:$18</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$B$24:$M$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$38</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$18:$20</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -134,24 +134,12 @@
     <t>&lt;#dt.STT&gt;</t>
   </si>
   <si>
-    <t>Đơn vị thụ hưởng: &lt;#sDonViThuHuong&gt;.</t>
-  </si>
-  <si>
-    <t>Số tài khoản: &lt;#sSoTaiKhoan&gt; .Tại: &lt;#sNganHang&gt;.</t>
-  </si>
-  <si>
     <t>(*) Ghi các căn cứ Hợp đồng, văn bản phê duyệt dự toán  đối với các nội dung chi không qua hợp đồng.</t>
   </si>
   <si>
     <t>Đơn vị tính: &lt;#IF(&lt;#dvt&gt;=1;"Nghìn USD";"Nghìn VND")&gt;</t>
   </si>
   <si>
-    <t>GIẤY ĐỀ NGHỊ THANH TOÁN</t>
-  </si>
-  <si>
-    <t>KINH PHÍ TỪ NGUỒN QUỸ DỰ TRỮ NGOẠI HỐI</t>
-  </si>
-  <si>
     <t>&lt;#dt.sMucLucNganSach&gt;&lt;#Row height(Autofit; 120)&gt;</t>
   </si>
   <si>
@@ -176,18 +164,6 @@
     <t>Kính gửi: &lt;#sNoiDung&gt;&lt;#Row height(Autofit)&gt;</t>
   </si>
   <si>
-    <t>Mẫu số:  04 TTNH</t>
-  </si>
-  <si>
-    <t>Số:…./TT</t>
-  </si>
-  <si>
-    <t>Tên chương trình (dự án đầu tư): &lt;#sTenChuongTrinh&gt;.</t>
-  </si>
-  <si>
-    <t>Đơn vị chủ hàng (chủ đầu tư): &lt;#sTenCDT&gt;.</t>
-  </si>
-  <si>
     <t>Căn cứ (*): &lt;#sCanCu&gt;.&lt;#Row height(Autofit)&gt;</t>
   </si>
   <si>
@@ -206,12 +182,6 @@
     <t xml:space="preserve"> Hà Nội, ngày… tháng… năm</t>
   </si>
   <si>
-    <t>Chương 010, Loại 010, Khoản 011.</t>
-  </si>
-  <si>
-    <t>Chuyển khoản : &lt;#fBangSo&gt;. Bằng chữ: &lt;#sBangChu&gt;</t>
-  </si>
-  <si>
     <t>&lt;#ChucDanh1&gt;</t>
   </si>
   <si>
@@ -231,13 +201,43 @@
   </si>
   <si>
     <t>&lt;#evaluate(UPPER(&lt;#idDonVi&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>Số: &lt;#sSoDeNghi&gt; /TT</t>
+  </si>
+  <si>
+    <t>&lt;#sTieuDe1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sTieuDe2&gt;</t>
+  </si>
+  <si>
+    <t>Mẫu số:  04/TTNH</t>
+  </si>
+  <si>
+    <t>Tên chương trình (dự án đầu tư): &lt;#sTenChuongTrinh&gt;</t>
+  </si>
+  <si>
+    <t>Đơn vị chủ hàng (chủ đầu tư): &lt;#sTenCDT&gt;</t>
+  </si>
+  <si>
+    <t>Chương 010, Loại 010, Khoản 011</t>
+  </si>
+  <si>
+    <t>Đơn vị thụ hưởng: &lt;#sDonViThuHuong&gt;</t>
+  </si>
+  <si>
+    <t>Số tài khoản: &lt;#sSoTaiKhoan&gt;  tại: &lt;#sNganHang&gt;</t>
+  </si>
+  <si>
+    <t>Chuyển khoản : &lt;#fBangSoVND&gt; VND bằng chữ: &lt;#sBangChu&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +345,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -372,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -500,13 +507,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -547,104 +574,147 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -931,609 +1001,662 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L38"/>
+  <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
-    <col min="7" max="12" width="15.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="1.109375" style="1"/>
+    <col min="5" max="5" width="35.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="1.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+    <row r="1" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="66"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+    </row>
+    <row r="4" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+    </row>
+    <row r="6" spans="2:18" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B6" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+    </row>
+    <row r="7" spans="2:18" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B7" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+    </row>
+    <row r="8" spans="2:18" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B8" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="54"/>
-    </row>
-    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-    </row>
-    <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-    </row>
-    <row r="4" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="51" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="2:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B12" s="19"/>
+      <c r="C12" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B13" s="19"/>
+      <c r="C13" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B14" s="19"/>
+      <c r="C14" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B15" s="19"/>
+      <c r="C15" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B16" s="19"/>
+      <c r="C16" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="2:13" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B17" s="19"/>
+      <c r="C17" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+    </row>
+    <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="48"/>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="67"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="B21" s="18"/>
+      <c r="C21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="61"/>
+      <c r="F21" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-    </row>
-    <row r="6" spans="2:12" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="H21" s="57"/>
+      <c r="I21" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-    </row>
-    <row r="7" spans="2:12" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
-      <c r="C10" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
-      <c r="C11" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
-      <c r="C12" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B13" s="19"/>
-      <c r="C13" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
-      <c r="C14" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="2:12" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B15" s="19"/>
-      <c r="C15" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K16" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="48"/>
-    </row>
-    <row r="17" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="47"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="2:12" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.35">
-      <c r="B19" s="18"/>
-      <c r="C19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="28" t="s">
+      <c r="J21" s="51"/>
+      <c r="K21" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="21" t="s">
+      <c r="L21" s="52"/>
+      <c r="M21" s="51"/>
+    </row>
+    <row r="22" spans="2:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="54"/>
+      <c r="K22" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="40"/>
-    </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="42"/>
-    </row>
-    <row r="21" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="D21" s="1" t="s">
+      <c r="L22" s="55"/>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-    </row>
-    <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-    </row>
-    <row r="24" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="18"/>
-    </row>
-    <row r="25" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="D24" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+    </row>
+    <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-    </row>
-    <row r="26" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+    </row>
+    <row r="27" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-    </row>
-    <row r="28" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-    </row>
-    <row r="29" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="I28" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="18"/>
+      <c r="C29" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="I29" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+    </row>
+    <row r="30" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="26"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="26"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="26"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-    </row>
-    <row r="35" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
+      <c r="C35" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="26"/>
-    </row>
-    <row r="36" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="I35" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+    </row>
+    <row r="36" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="18"/>
-    </row>
-    <row r="37" spans="2:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="25"/>
+    </row>
+    <row r="37" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
+      <c r="D37" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="47">
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D23:L23"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C15:J15"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B10:M10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"&amp;12Tờ: &lt;#To&gt;- Trang: &amp;P/&amp;N</oddHeader>
   </headerFooter>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_GiayDeNghi_ThanhToan_ChiTrongNuoc.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_GiayDeNghi_ThanhToan_ChiTrongNuoc.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -533,7 +533,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -613,6 +613,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,8 +1006,8 @@
   </sheetPr>
   <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:K25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1026,62 +1029,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="66"/>
+      <c r="L1" s="67"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="36"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="37"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-    </row>
-    <row r="4" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+    </row>
+    <row r="4" spans="2:18" ht="4.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="37"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="35"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
@@ -1094,85 +1097,85 @@
       <c r="D5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
     </row>
     <row r="6" spans="2:18" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="2:18" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="2:18" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
       <c r="M9" s="33"/>
     </row>
     <row r="10" spans="2:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="31"/>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
@@ -1187,180 +1190,176 @@
     </row>
     <row r="12" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
       <c r="B13" s="19"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
       <c r="B14" s="19"/>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
       <c r="B15" s="19"/>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
       <c r="M15" s="20"/>
     </row>
     <row r="16" spans="2:18" ht="19.2" x14ac:dyDescent="0.35">
       <c r="B16" s="19"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
       <c r="M16" s="20"/>
     </row>
     <row r="17" spans="2:13" ht="19.2" x14ac:dyDescent="0.35">
       <c r="B17" s="19"/>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K18" s="68" t="s">
+      <c r="K18" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
     </row>
     <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="67" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="47" t="s">
+      <c r="H19" s="45"/>
+      <c r="I19" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="47" t="s">
+      <c r="J19" s="45"/>
+      <c r="K19" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="44"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="67"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="46"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="47"/>
     </row>
     <row r="21" spans="2:13" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="B21" s="18"/>
       <c r="C21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="50" t="s">
+      <c r="H21" s="58"/>
+      <c r="I21" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="50" t="s">
+      <c r="J21" s="52"/>
+      <c r="K21" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="52"/>
-      <c r="M21" s="51"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="2:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="18"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="53" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="55"/>
-      <c r="M22" s="54"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
@@ -1371,50 +1370,50 @@
     <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
     </row>
     <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="29"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
@@ -1427,39 +1426,39 @@
     </row>
     <row r="28" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
     </row>
     <row r="29" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="62" t="s">
+      <c r="I29" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
     </row>
     <row r="30" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
@@ -1533,21 +1532,21 @@
     </row>
     <row r="35" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="62" t="s">
+      <c r="I35" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
     </row>
     <row r="36" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
@@ -1558,23 +1557,23 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
       <c r="L36" s="28"/>
       <c r="M36" s="25"/>
     </row>
     <row r="37" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="C37" s="18"/>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
       <c r="L37" s="30"/>
       <c r="M37" s="18"/>
     </row>
@@ -1583,13 +1582,13 @@
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C39" s="15"/>
